--- a/biology/Botanique/Liste_des_photo-guides_naturalistes/Liste_des_photo-guides_naturalistes.xlsx
+++ b/biology/Botanique/Liste_des_photo-guides_naturalistes/Liste_des_photo-guides_naturalistes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les photo-guides naturalistes (PGN) de Wikipédia sont des pages contenant des galeries-photos permettant une identification de la faune et de la flore de sites naturels terrestres ou sous-marins.
 </t>
@@ -511,7 +523,9 @@
           <t>Photo-guides naturalistes sous-marins</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			PGN sous-marin du lagon de la Réunion
@@ -552,7 +566,9 @@
           <t>Photo-guides naturalistes terrestres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			PGN du parc national de Bialowieza (Pologne)
@@ -586,9 +602,51 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vertébrés
+          <t>Vertébrés</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Cétacés de Méditerranée
-Invertébrés
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_photo-guides_naturalistes</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_photo-guides_naturalistes</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Faunes régionales par taxon</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Invertébrés</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 	Échinodermes
 			Échinodermes de l'Atlantique nord-est
 			Échinodermes de Méditerranée
